--- a/biology/Médecine/Pimavansérine/Pimavansérine.xlsx
+++ b/biology/Médecine/Pimavansérine/Pimavansérine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pimavans%C3%A9rine</t>
+          <t>Pimavansérine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pimavansérine est une molécule en cours de développement comme médicament antipsychotique par voie orale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pimavans%C3%A9rine</t>
+          <t>Pimavansérine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un agoniste inverse spécifique  des récepteurs sérotoninergiques de type 5HT-2a[1], avec peu d'effet sur le 5HT-2c[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un agoniste inverse spécifique  des récepteurs sérotoninergiques de type 5HT-2a, avec peu d'effet sur le 5HT-2c.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pimavans%C3%A9rine</t>
+          <t>Pimavansérine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Évaluations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle permet l'amélioration des symptômes psychotiques de la maladie de Parkinson[3],[4] et des démences[5], sans effet secondaire notable au niveau moteur ou vigilance. 
-Dans la schizophrénie, son action semble synergique avec la rispéridone mais pas avec l'halopéridol[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle permet l'amélioration des symptômes psychotiques de la maladie de Parkinson, et des démences, sans effet secondaire notable au niveau moteur ou vigilance. 
+Dans la schizophrénie, son action semble synergique avec la rispéridone mais pas avec l'halopéridol.
 </t>
         </is>
       </c>
